--- a/feature_importances_lofo.xlsx
+++ b/feature_importances_lofo.xlsx
@@ -478,19 +478,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>mmrc</t>
+          <t>gender</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="n">
-        <v>-0.006896551724138</v>
+        <v>0.02406130268199236</v>
       </c>
       <c r="F2" t="n">
-        <v>0.002153716216216295</v>
+        <v>0.01199324324324336</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.003919631093544096</v>
+        <v>-0.004743083003952542</v>
       </c>
       <c r="H2" t="inlineStr"/>
     </row>
@@ -500,19 +500,19 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>dyspnoea</t>
+          <t>heart_failure</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0.0003831417624521327</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0.02208614864864855</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0.01297760210803689</v>
       </c>
       <c r="H3" t="inlineStr"/>
     </row>
@@ -522,19 +522,19 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>hypertension</t>
+          <t>diabetes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>0.003678160919540208</v>
+        <v>-0.001609195402298869</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01499155405405417</v>
+        <v>0.0152871621621623</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.01172595520421604</v>
+        <v>0.003425559947299206</v>
       </c>
       <c r="H4" t="inlineStr"/>
     </row>
@@ -544,19 +544,19 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>heart_failure</t>
+          <t>dyspnoea</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>-0.0003831417624521327</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.02208614864864855</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.01297760210803689</v>
+        <v>0</v>
       </c>
       <c r="H5" t="inlineStr"/>
     </row>
@@ -566,19 +566,19 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>bmi</t>
+          <t>hypertension</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>-0.03555555555555567</v>
+        <v>0.003678160919540208</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.01461148648648636</v>
+        <v>0.01499155405405417</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.08458498023715411</v>
+        <v>-0.01172595520421604</v>
       </c>
       <c r="H6" t="inlineStr"/>
     </row>
@@ -588,19 +588,19 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>diabetes</t>
+          <t>mmrc</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>-0.001609195402298869</v>
+        <v>-0.006896551724138</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0151182432432434</v>
+        <v>0.002153716216216295</v>
       </c>
       <c r="G7" t="n">
-        <v>0.003425559947299206</v>
+        <v>-0.003919631093544096</v>
       </c>
       <c r="H7" t="inlineStr"/>
     </row>
@@ -616,7 +616,7 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>-0.04961685823754802</v>
+        <v>-0.04969348659003847</v>
       </c>
       <c r="F8" t="n">
         <v>0.02010135135135149</v>
@@ -632,19 +632,19 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>fever</t>
+          <t>bmi</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>-0.03555555555555567</v>
       </c>
       <c r="F9" t="n">
-        <v>0.009375000000000022</v>
+        <v>-0.01461148648648636</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.009420289855072483</v>
+        <v>-0.08458498023715411</v>
       </c>
       <c r="H9" t="inlineStr"/>
     </row>
@@ -654,19 +654,19 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>gender</t>
+          <t>fever</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.02406130268199236</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01199324324324336</v>
+        <v>0.009375000000000022</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.004743083003952542</v>
+        <v>-0.009420289855072483</v>
       </c>
       <c r="H10" t="inlineStr"/>
     </row>
@@ -728,63 +728,63 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>mmrc</t>
+          <t>dyspnoea</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.02970122932770655</v>
+        <v>0.02818166276262948</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02192204184786318</v>
+        <v>0.02368277136906779</v>
       </c>
       <c r="E2" t="n">
-        <v>0.005580357142857206</v>
+        <v>-0.005952380952380931</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01012753188297066</v>
+        <v>0.05626406601650413</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05037593984962419</v>
+        <v>0.04285714285714293</v>
       </c>
       <c r="H2" t="n">
-        <v>0.05272108843537415</v>
+        <v>0.01955782312925181</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>dyspnoea</t>
+          <t>mmrc</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.02230424600645331</v>
+        <v>0.02661154293591525</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02567445105879553</v>
+        <v>0.02585151487756427</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.01488095238095233</v>
+        <v>0.008556547619047561</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05626406601650413</v>
+        <v>-0.004876219054763653</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03082706766917309</v>
+        <v>0.05939849624060156</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01700680272108834</v>
+        <v>0.04336734693877553</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -792,50 +792,50 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.0191956357946898</v>
+        <v>0.01758784931530954</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03251845209228779</v>
+        <v>0.03303146681556174</v>
       </c>
       <c r="E4" t="n">
         <v>-0.03422619047619047</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02025506376594133</v>
+        <v>0.01425356339084771</v>
       </c>
       <c r="G4" t="n">
-        <v>0.04398496240601524</v>
+        <v>0.05375939849624078</v>
       </c>
       <c r="H4" t="n">
-        <v>0.04676870748299311</v>
+        <v>0.03656462585034015</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>fever</t>
+          <t>gender</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.0003673011432235584</v>
+        <v>-0.0008373713745971068</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01716787522903474</v>
+        <v>0.006236969614988579</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.01785714285714279</v>
+        <v>-0.0007440476190476719</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0232558139534883</v>
+        <v>0.008252063015753985</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01052631578947383</v>
+        <v>-0.001503759398496118</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.0144557823129251</v>
+        <v>-0.009353741496598622</v>
       </c>
     </row>
     <row r="6">
@@ -844,59 +844,59 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>gender</t>
+          <t>fever</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-0.008464328882636873</v>
+        <v>-0.001096737370768514</v>
       </c>
       <c r="D6" t="n">
-        <v>0.00435683484512964</v>
+        <v>0.01397300302240336</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.002232142857142794</v>
+        <v>-0.01860119047619047</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.01125281320330085</v>
+        <v>0.007876969242310627</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.006766917293233088</v>
+        <v>0.01654135338345875</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.01360544217687076</v>
+        <v>-0.01020408163265296</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>heart_failure</t>
+          <t>hypertension</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-0.01332509634524634</v>
+        <v>-0.003515654062884621</v>
       </c>
       <c r="D7" t="n">
-        <v>0.008855891620410955</v>
+        <v>0.01433284276809827</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.02678571428571419</v>
+        <v>-0.006696428571428603</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.01500375093773443</v>
+        <v>-0.02400600150037502</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.003007518796992459</v>
+        <v>0.01578947368421058</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.008503401360544283</v>
+        <v>0.0008503401360545615</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -904,78 +904,78 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-0.01536878391691102</v>
+        <v>-0.009479196002343704</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01052012996262004</v>
+        <v>0.01435481763248717</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.0200892857142857</v>
+        <v>-0.015625</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.02925731432858225</v>
+        <v>-0.03000750187546875</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.01127819548872167</v>
+        <v>0.006015037593985029</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.0008503401360544505</v>
+        <v>0.001700680272108901</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>hypertension</t>
+          <t>age</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-0.01805044608359399</v>
+        <v>-0.01759201737363719</v>
       </c>
       <c r="D9" t="n">
-        <v>0.01056942931965461</v>
+        <v>0.03951075645253172</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.02976190476190477</v>
+        <v>-0.07514880952380953</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.02625656414103539</v>
+        <v>-0.02025506376594144</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.01278195488721801</v>
+        <v>0.03609022556390973</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.003401360544217802</v>
+        <v>-0.01105442176870752</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>age</t>
+          <t>heart_failure</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-0.0227337503263437</v>
+        <v>-0.01971770361864092</v>
       </c>
       <c r="D10" t="n">
-        <v>0.03651694899686692</v>
+        <v>0.01820173089097369</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.07663690476190477</v>
+        <v>-0.046875</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.02625656414103528</v>
+        <v>-0.02550637659414845</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02556390977443612</v>
+        <v>-0.005639097744360888</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.01360544217687087</v>
+        <v>-0.0008503401360543394</v>
       </c>
     </row>
   </sheetData>
@@ -1040,19 +1040,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>mmrc</t>
+          <t>gender</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="n">
-        <v>0.04444444444444451</v>
+        <v>0.008888888888888946</v>
       </c>
       <c r="F2" t="n">
-        <v>0.05128205128205121</v>
+        <v>-0.07326007326007322</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03030303030303039</v>
+        <v>-0.02462121212121204</v>
       </c>
       <c r="H2" t="inlineStr"/>
     </row>
@@ -1062,19 +1062,19 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>dyspnea</t>
+          <t>heart_failure</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
-        <v>0.1422222222222222</v>
+        <v>-0.008888888888888835</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01831501831501836</v>
+        <v>0.0073260073260073</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07196969696969702</v>
+        <v>0</v>
       </c>
       <c r="H3" t="inlineStr"/>
     </row>
@@ -1084,19 +1084,19 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>hypertension</t>
+          <t>diabetes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>0.0311111111111112</v>
+        <v>0.01777777777777778</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.02197802197802212</v>
+        <v>-0.02930402930402931</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02272727272727271</v>
+        <v>-0.0265151515151516</v>
       </c>
       <c r="H4" t="inlineStr"/>
     </row>
@@ -1106,19 +1106,19 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>heart_failure</t>
+          <t>hypertension</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
+        <v>0.008888888888888946</v>
+      </c>
+      <c r="F5" t="n">
         <v>0</v>
       </c>
-      <c r="F5" t="n">
-        <v>-0.01098901098901106</v>
-      </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>-0.003787878787878785</v>
       </c>
       <c r="H5" t="inlineStr"/>
     </row>
@@ -1128,19 +1128,19 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>bmi</t>
+          <t>mmrc</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>-0.03111111111111109</v>
+        <v>0.04444444444444451</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.02930402930402931</v>
+        <v>0.08058608058608063</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1060606060606061</v>
+        <v>0.02651515151515149</v>
       </c>
       <c r="H6" t="inlineStr"/>
     </row>
@@ -1150,19 +1150,19 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>diabetes</t>
+          <t>age</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>0.004444444444444473</v>
+        <v>-0.04444444444444451</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.06227106227106238</v>
+        <v>-0.1721611721611721</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>-0.06439393939393945</v>
       </c>
       <c r="H7" t="inlineStr"/>
     </row>
@@ -1172,19 +1172,19 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>age</t>
+          <t>dyspnea</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>-0.06666666666666665</v>
+        <v>0.09333333333333338</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1941391941391942</v>
+        <v>0.00366300366300365</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.03409090909090895</v>
+        <v>0.01136363636363624</v>
       </c>
       <c r="H8" t="inlineStr"/>
     </row>
@@ -1194,19 +1194,19 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>fever</t>
+          <t>bmi</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>0.008888888888888946</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>0.00366300366300365</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>0.09090909090909094</v>
       </c>
       <c r="H9" t="inlineStr"/>
     </row>
@@ -1216,19 +1216,19 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>gender</t>
+          <t>fever</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>-0.008888888888888835</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.06959706959706968</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.005681818181818121</v>
+        <v>0</v>
       </c>
       <c r="H10" t="inlineStr"/>
     </row>
